--- a/pred_ohlcv/54_21/2019-10-29 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>398128.4032</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>359106.1365</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>276828.023</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1251466.809095</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1122693.073895</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1153454.331295</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1149699.062595</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1016038.042695</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>682133.1681949999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>682133.1681949999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>888267.9549949999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>868206.5469949999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>907293.0600949998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>841320.4894949999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>560975.2205949998</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>710183.3266949998</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>679016.3679949999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>681951.0623949999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>686373.0623949999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>805733.1285949999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>727025.5718949999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>680214.5718949999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>950440.7455949999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1438962.007630549</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1432194.182730549</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>603974.0219305495</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1448676.826705062</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2034235.400805062</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2032563.317268621</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1999387.048268621</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2008398.048268621</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2010138.048268621</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1450972.978568621</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>1055446.199935995</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>1054943.564035994</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>935481.3496359945</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>937797.7994359945</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>943797.7994359945</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>939396.5447359944</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1142501.671135994</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>1023891.671135994</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>1032565.205035994</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>1028565.205035994</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>1046652.205035994</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>1056792.205035994</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>1056782.205035994</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>1044983.141235994</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>398128.4032</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>359106.1365</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>276828.023</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1230610.714795</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1286913.757295</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1251466.809095</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1122693.073895</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1153454.331295</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>682133.1681949999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>910282.1206504656</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>910282.1206504656</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>921270.1206504656</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>921270.1206504656</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1284741.123650466</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1372999.167930549</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1372999.167930549</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1371865.007630549</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1371865.007630549</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1360588.007630549</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1360588.007630549</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1390742.007630549</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1440962.007630549</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1438962.007630549</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1432194.182730549</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1340025.16623055</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1344025.16623055</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1312661.41103055</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>666185.2944305496</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>679563.8856305496</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>668568.8856305496</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>603974.0219305495</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>902254.6883305494</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>902284.6883305494</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>902284.6883305494</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>873617.6883305494</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>866633.5910305494</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>880316.5910305494</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>859216.5910305494</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>859410.5565305494</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>837638.8968305495</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>813638.8968305495</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>813738.8968305495</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>813647.5771305495</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1448676.826705062</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2034235.400805062</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2032563.317268621</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1999387.048268621</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2008398.048268621</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2010138.048268621</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1450972.978568621</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>935481.3496359945</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>937797.7994359945</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>943797.7994359945</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>939396.5447359944</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1142501.671135994</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>1023891.671135994</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>1032565.205035994</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>1028565.205035994</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>1046652.205035994</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>1056792.205035994</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>1056782.205035994</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>1044983.141235994</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
